--- a/secondLevel_URL_Test.xlsx
+++ b/secondLevel_URL_Test.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -443,452 +456,452 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-19_30151/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2352N_49136/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS-200-MARCH-2006_3217/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-053_56766/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/NIST_SP-800-171_REV-1_56005/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/MTR_5-1-014_31JUL1969_45799/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_447_3840/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-298_51050/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/NIST_SP_800-53_REV-4_46744/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DWG_19207-12369003_REV-G_47842/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-HDBK/NIST-HDBK-44_2004_3216/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-410_51049/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-HDBK/NIST_HDBK_135_134/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2404_21OCT2011_49135/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/NIST_SP_800-12_3839/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/fips196_3229/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/CERL_RCM_GUIDE_TR-99X41_APRIL1999_56751/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_184_3380/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ERDC_CERL_TR-05-36_2005_40711/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/COST_ANALYSIS_MANUAL_MAY2002_51822/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_966_PERIODIC_TABLE_2003_3838/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS-PUB-197-AES_3222/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/FED-STD-H28_13_57160/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_180-2(AUG_2002)_3221/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-054_56765/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_330_2001_3830/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATTP_3-97x11_2011_35375/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/fips186-2-change1_3227/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/OD1651_ED-8_WELDING-1_3825/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS-PUB-199_3224/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-102_PART-2_51048/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-HDBK/NIST_HDBK_NISTIR_6806_157/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-051_41488/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/NIST_SP_800-171_REV-1_55793/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2407_25JUN2012_50460/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_811_3831/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/NISTIR_327321_218/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DG_1110-3-122_SEP1997_51012/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-44_V2_3225/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ORDBB-NR-126_MAR1962_45798/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/?page=2</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-052_41489/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/S_800-27A_17805/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_4_3450/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2234_4078/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_41_3264/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/NATICK_PAM_30-25_AUG2012_49978/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_171_3464/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2352R_50444/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_95_2_3518/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_432_2002_4151/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/EP_1110-3-2_1990_18942/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-HDBK/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/LC-78-2_FEB1978_18227/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-10__30149/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/LO9-2320-289-12_6204/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-64_REV-1_30115/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/CDD_Writers_Guide_VER1x5_16JUN2009_20329/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=6</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_31_3231/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JLTV_PD_v3x0x2_08MAR2012_50461/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_185_(FEB_1994)_3220/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/MANPRINT_Guidebook(JUL1997)_4426/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/TN-1297_3832/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/P-47-BxCxDxG_AIRCRAFT_PILOTS_OPERATING_MANUAL_TO_01-65BC-1--_20JAN1943_57080/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_672_1997_3837/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PRODUCIBILITY_STD_PRACTICE_MANUAL_SEP1993_34552/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-47_30288/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/TACOM_12472301_REV-A_42892/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_183_3469/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/RP-47BxC_P-47DxG_AIRCRAFT_PILOTS_OPERATING_INSTRUCTIONS_TO_01-65BC-1--_20NOV1943_57083/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_966_PERIODIC_TABLE_2014_54287/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_70-3_RAR_2009_20318/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/tb9-2300-426-20_6201/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-41_30147/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_700�32_2008_40603/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/fips-198a_3263/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_708_1_2008_37911/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/NISTIR_85-3273-19_2004_23/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ORDP_20-282_AKA_AMCP_706-282_55458/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_173_1_3521/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/P-47B-C-D_01-65BC-4)_IPC_20SEP1943_57085/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_4_2_3484/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/P-47_AAF_Man_50-5_57082/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_105_3506/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/TB9-2300-247-40_6203/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP800-53_REV-3_17803/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_385-63_2014_50689/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/fips188_3228/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_25-403_2006_3994/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-18_REV-1_12868/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PBL_IMPL_GUIDE_4MAY2004_17653/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-30_3226/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/P-38-Lightning_Flight-Manual_AAF_51-127-1_1945_57094/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-14_17804/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/P-51D_POH_05APR1944_AN-01-60JE-4pdf_57079/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-41_REV-1_DRAFT_30148/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_25-40_2018_56099/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/NIST_SP_800-171A_55794/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_5-11_1999_29316/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_94_3307/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/RELIABILITY_HDBK_2ED_45802/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS-201-1-chng1_3218/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_385-64_1999_6105/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_46-3_3230/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_738_750_1994_5501/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_140-2_CHG-4_3219/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/P-47D-25--35_AIRCRAFT_PILOTS_OPERATING_INSTRUCTIONS_1945_57084/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-31_30152/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/TACOM_12479550_REV-A_42894/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP_800-100_3232/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_25-32_1998_37271/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/CS_117-49_2ED_48563/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/tb9-2300-422-20_6202/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-FIPS/FIPS_PUB_191-ANALYSIS_OF_LANS_3223/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_70-3_2008_3865/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/SP-800-95_2007_20594/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_70-3_2014_50526/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://everyspec.com/NIST/NIST-General/NIST_MONOGRAPH_155_1999_3833/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/PAM_25_40_2006_3993/</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/secondLevel_URL_Test.xlsx
+++ b/secondLevel_URL_Test.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,28 +456,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2352N_49136/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/LC-78-2_FEB1978_18227/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-053_56766/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/COST_ANALYSIS_MANUAL_MAY2002_51822/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/MTR_5-1-014_31JUL1969_45799/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ERDC_CERL_TR-05-36_2005_40711/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-298_51050/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-052_41489/</t>
         </is>
       </c>
     </row>
@@ -491,413 +491,749 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-410_51049/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JLTV_PD_v3x0x2_08MAR2012_50461/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2404_21OCT2011_49135/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=5</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/OD1651_ED-8_WELDING-1_3825/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/CERL_RCM_GUIDE_TR-99X41_APRIL1999_56751/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-051_41488/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ERDC_CERL_TR-05-36_2005_40711/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/NATICK_PAM_30-25_AUG2012_49978/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/COST_ANALYSIS_MANUAL_MAY2002_51822/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/MTR_5-1-014_31JUL1969_45799/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=2</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ORDBB-NR-126_MAR1962_45798/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/FED-STD-H28_13_57160/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DG_1110-3-122_SEP1997_51012/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-054_56765/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATTP_3-97x11_2011_35375/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2352R_50444/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/OD1651_ED-8_WELDING-1_3825/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-102_PART-2_51048/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/FED-STD-H28_13_57160/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-051_41488/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/MANPRINT_Guidebook(JUL1997)_4426/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2407_25JUN2012_50460/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/CERL_RCM_GUIDE_TR-99X41_APRIL1999_56751/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=3</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2407_25JUN2012_50460/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/DG_1110-3-122_SEP1997_51012/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-298_51050/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ORDBB-NR-126_MAR1962_45798/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/CDD_Writers_Guide_VER1x5_16JUN2009_20329/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-052_41489/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2404_21OCT2011_49135/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=4</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2234_4078/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-410_51049/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/NATICK_PAM_30-25_AUG2012_49978/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2352R_50444/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2234_4078/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-053_56766/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/EP_1110-3-2_1990_18942/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATTP_3-97x11_2011_35375/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/LC-78-2_FEB1978_18227/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2352N_49136/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/LO9-2320-289-12_6204/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-054_56765/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/CDD_Writers_Guide_VER1x5_16JUN2009_20329/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/EP_1110-3-2_1990_18942/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=6</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/LO9-2320-289-12_6204/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JLTV_PD_v3x0x2_08MAR2012_50461/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-102_PART-2_51048/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/MANPRINT_Guidebook(JUL1997)_4426/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/P-47-BxCxDxG_AIRCRAFT_PILOTS_OPERATING_MANUAL_TO_01-65BC-1--_20JAN1943_57080/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-253_FEB1979_50899/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PRODUCIBILITY_STD_PRACTICE_MANUAL_SEP1993_34552/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-250_AUG1964_55540/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TACOM_12472301_REV-A_42892/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-280_JUL1968_50859/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/RP-47BxC_P-47DxG_AIRCRAFT_PILOTS_OPERATING_INSTRUCTIONS_TO_01-65BC-1--_20NOV1943_57083/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-270_SEP1975_53506/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_70-3_RAR_2009_20318/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-283_APR1965_50919/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/tb9-2300-426-20_6201/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2167_1990_38936/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_700�32_2008_40603/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-341_30SEP1963_51378/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_708_1_2008_37911/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-327_55428/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ORDP_20-282_AKA_AMCP_706-282_55458/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ARMY_DSN_GUIDE_CORROSION_COMBAT_VEHICLES_1988_39307/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/P-47B-C-D_01-65BC-4)_IPC_20SEP1943_57085/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-286_30SEP1963_50920/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/P-47_AAF_Man_50-5_57082/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-360_55426/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TB9-2300-247-40_6203/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-248_MAR1966_50944/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_385-63_2014_50689/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-247_JUL1964_55541/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_25-403_2006_3994/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-356_APR1967_55543/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PBL_IMPL_GUIDE_4MAY2004_17653/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2232_09JAN1998_52538/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/P-38-Lightning_Flight-Manual_AAF_51-127-1_1945_57094/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706_329_OCT1970_55545/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/P-51D_POH_05APR1944_AN-01-60JE-4pdf_57079/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-249_JUL1964_50943/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_25-40_2018_56099/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-251_MAY1968_50898/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_5-11_1999_29316/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-340_31MAR1964_51377/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/RELIABILITY_HDBK_2ED_45802/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ARL-TR-4077_APR2007_54488/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_385-64_1999_6105/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-445_JUL1972_50925/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_738_750_1994_5501/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-343_DEC1963_56972/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/P-47D-25--35_AIRCRAFT_PILOTS_OPERATING_INSTRUCTIONS_1945_57084/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-361_55413/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TACOM_12479550_REV-A_42894/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706_357_APR1970_55544/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_25-32_1998_37271/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-244_SEP1963_55542/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/tb9-2300-422-20_6202/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ARMY_CMR_USER_GUIDE_CNTR_RPTG_V3x6_50771/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_70-3_2008_3865/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-355_26FEB1965_55539/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_70-3_2014_50526/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ARI-Research-Note_86-19_52416/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/PAM_25_40_2006_3993/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-285-JUL1969_50860/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-111_16DEC1969_51374/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMATEUR_ROCKETRY_GUIDE_JAN1963_18612/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AAF_MAN_51-127-4_TRAINING_P47N_01SEP1945_57081/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/12472301A_TACOM_ALUMINUM_WELD_CODE_39306/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-116_APR1975_50905/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-114_DEC1969_56974/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-120_SEP1971_50907/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMC-P_700-25_CHG-1_28AUG1997_51169/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_702-3_1968_45801/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_700-3-2_MAY1984_51175/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-10_NOV1969_50926/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_700-3-3_NOV1985_51174/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-197_PART-3_JAN1976_45666/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-117_JAN1976_45816/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_700-3-5_JUN1986_51173/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-119_JUL1975_50904/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-252_45668/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-113_16DEC1969_51372/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-200_PART-6_JAN1975_45664/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-110_16DEC1969_51371/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AK47_MANUAL_5655/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-115_JUL1974_50906/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-118_MAR1975_50903/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-112_16DEC1969_51373/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-100_AUG1971_51038/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-106_AUG1964_56975/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-107_55427/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-260_45667/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-198_PART-4_JAN1976_45665/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TC_9-524_29OCT1996_16321/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TI_809-26_01MAR2000_16320/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TRADOC_Pamphlet_525-7-4_3866/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TB_703-_1_Lubricants_41852/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TRADOC_PAMPHLET_715-6_2000_43775/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TB_43-0147_CHG-2_50537/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TB_43-0242_03DEC2007_50458/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TR-652_SEP2000_7405/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/tb43-0242_6198/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TB_43-0144_9OCT1990_13665/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TECP_700-700_VOL-III_1967_37745/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/USACHPPM_TECH_GUIDE_244_MAY2000_6116/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TR_68-4_OCT1968_52417/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TC_38-3_DEC1999_42631/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TC_9-64_7027/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/WTC_AAS_HDBK_2013_53860/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/USACERL_TR-99_41_RCM_GUIDE_1999_42609/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TB43-0213_6200/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>http://everyspec.com/ARMY/ARMY-General/TB_43-0209_CHG-1_6205/</t>
         </is>
       </c>
     </row>

--- a/secondLevel_URL_Test.xlsx
+++ b/secondLevel_URL_Test.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A113"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,84 +456,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/LC-78-2_FEB1978_18227/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/COST_ANALYSIS_MANUAL_MAY2002_51822/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JLTV_PD_v3x0x2_08MAR2012_50461/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ERDC_CERL_TR-05-36_2005_40711/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-052_41489/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-052_41489/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/DWG_19207-12369003_REV-G_47842/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-053_56766/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JLTV_PD_v3x0x2_08MAR2012_50461/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/CDD_Writers_Guide_VER1x5_16JUN2009_20329/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=3</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2234_4078/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/OD1651_ED-8_WELDING-1_3825/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-298_51050/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-051_41488/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/NATICK_PAM_30-25_AUG2012_49978/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/MTR_5-1-014_31JUL1969_45799/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/EP_1110-3-2_1990_18942/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ORDBB-NR-126_MAR1962_45798/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2352R_50444/</t>
         </is>
       </c>
     </row>
@@ -547,693 +547,154 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2352R_50444/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/NATICK_PAM_30-25_AUG2012_49978/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=6</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/MANPRINT_Guidebook(JUL1997)_4426/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/FED-STD-H28_13_57160/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/OD1651_ED-8_WELDING-1_3825/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/MANPRINT_Guidebook(JUL1997)_4426/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/LC-78-2_FEB1978_18227/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/CERL_RCM_GUIDE_TR-99X41_APRIL1999_56751/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2404_21OCT2011_49135/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2407_25JUN2012_50460/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2352N_49136/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-298_51050/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/COST_ANALYSIS_MANUAL_MAY2002_51822/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/CDD_Writers_Guide_VER1x5_16JUN2009_20329/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/CERL_RCM_GUIDE_TR-99X41_APRIL1999_56751/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2404_21OCT2011_49135/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/LO9-2320-289-12_6204/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=5</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DWG_19207-12369003_REV-G_47842/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-410_51049/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-102_PART-2_51048/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=4</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ORDBB-NR-126_MAR1962_45798/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2234_4078/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/?page=5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-053_56766/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATPD_2407_25JUN2012_50460/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATTP_3-97x11_2011_35375/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-054_56765/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2352N_49136/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/MTR_5-1-014_31JUL1969_45799/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-054_56765/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ERDC_CERL_TR-05-36_2005_40711/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/EP_1110-3-2_1990_18942/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/JOTP-051_41488/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/LO9-2320-289-12_6204/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/FED-STD-H28_13_57160/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-102_PART-2_51048/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/ATTP_3-97x11_2011_35375/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/?page=2</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-253_FEB1979_50899/</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-250_AUG1964_55540/</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-280_JUL1968_50859/</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-270_SEP1975_53506/</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-283_APR1965_50919/</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2167_1990_38936/</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-341_30SEP1963_51378/</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-327_55428/</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ARMY_DSN_GUIDE_CORROSION_COMBAT_VEHICLES_1988_39307/</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-286_30SEP1963_50920/</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-360_55426/</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-248_MAR1966_50944/</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-247_JUL1964_55541/</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-356_APR1967_55543/</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ATPD-2232_09JAN1998_52538/</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706_329_OCT1970_55545/</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-249_JUL1964_50943/</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-251_MAY1968_50898/</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-340_31MAR1964_51377/</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ARL-TR-4077_APR2007_54488/</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-445_JUL1972_50925/</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-343_DEC1963_56972/</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-361_55413/</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706_357_APR1970_55544/</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-244_SEP1963_55542/</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ARMY_CMR_USER_GUIDE_CNTR_RPTG_V3x6_50771/</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-355_26FEB1965_55539/</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/ARI-Research-Note_86-19_52416/</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-285-JUL1969_50860/</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-111_16DEC1969_51374/</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMATEUR_ROCKETRY_GUIDE_JAN1963_18612/</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AAF_MAN_51-127-4_TRAINING_P47N_01SEP1945_57081/</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/12472301A_TACOM_ALUMINUM_WELD_CODE_39306/</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-116_APR1975_50905/</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-114_DEC1969_56974/</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-120_SEP1971_50907/</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMC-P_700-25_CHG-1_28AUG1997_51169/</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_702-3_1968_45801/</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_700-3-2_MAY1984_51175/</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-10_NOV1969_50926/</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_700-3-3_NOV1985_51174/</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-197_PART-3_JAN1976_45666/</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-117_JAN1976_45816/</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_700-3-5_JUN1986_51173/</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-119_JUL1975_50904/</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-252_45668/</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-113_16DEC1969_51372/</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-200_PART-6_JAN1975_45664/</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-110_16DEC1969_51371/</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AK47_MANUAL_5655/</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-115_JUL1974_50906/</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-118_MAR1975_50903/</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-112_16DEC1969_51373/</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-100_AUG1971_51038/</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-106_AUG1964_56975/</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP_706-107_55427/</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-260_45667/</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/AMCP-706-198_PART-4_JAN1976_45665/</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TC_9-524_29OCT1996_16321/</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TI_809-26_01MAR2000_16320/</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TRADOC_Pamphlet_525-7-4_3866/</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TB_703-_1_Lubricants_41852/</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TRADOC_PAMPHLET_715-6_2000_43775/</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TB_43-0147_CHG-2_50537/</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TB_43-0242_03DEC2007_50458/</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TR-652_SEP2000_7405/</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/tb43-0242_6198/</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TB_43-0144_9OCT1990_13665/</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TECP_700-700_VOL-III_1967_37745/</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/USACHPPM_TECH_GUIDE_244_MAY2000_6116/</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TR_68-4_OCT1968_52417/</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TC_38-3_DEC1999_42631/</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TC_9-64_7027/</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/WTC_AAS_HDBK_2013_53860/</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/USACERL_TR-99_41_RCM_GUIDE_1999_42609/</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TB43-0213_6200/</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>http://everyspec.com/ARMY/ARMY-General/TB_43-0209_CHG-1_6205/</t>
+          <t>http://everyspec.com/ARMY/ARMY-General/DARCOM_P-706-410_51049/</t>
         </is>
       </c>
     </row>
